--- a/Keras/Model_results/Model_analysis.xlsx
+++ b/Keras/Model_results/Model_analysis.xlsx
@@ -8,22 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjcol\OneDrive\Documents\Drexel\Senior_Design\Instrument-Recognition\Keras\Model_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6819EB-3848-43A0-864E-8F9DC00BCF20}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782A4BB2-2F69-434F-82FC-20B4C6777300}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="19935" windowHeight="11520" xr2:uid="{85FCB97B-74E0-4043-BCA2-F2501C45CD91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="7" activeTab="9" xr2:uid="{85FCB97B-74E0-4043-BCA2-F2501C45CD91}"/>
   </bookViews>
   <sheets>
-    <sheet name="Micro" sheetId="1" r:id="rId1"/>
-    <sheet name="Macro" sheetId="9" r:id="rId2"/>
-    <sheet name="Han_recreate_weights" sheetId="3" r:id="rId3"/>
-    <sheet name="IRMAS_Nsynth_weights" sheetId="4" r:id="rId4"/>
-    <sheet name="IRMAS_extended_weights" sheetId="5" r:id="rId5"/>
-    <sheet name="IRMAS_extended_Nsynth_weights" sheetId="6" r:id="rId6"/>
-    <sheet name="IRMAS_extended_aug" sheetId="8" r:id="rId7"/>
-    <sheet name="IRMAS_ext_Nsynth_aug" sheetId="7" r:id="rId8"/>
+    <sheet name="Train Results" sheetId="10" r:id="rId1"/>
+    <sheet name="Micro" sheetId="1" r:id="rId2"/>
+    <sheet name="Macro" sheetId="9" r:id="rId3"/>
+    <sheet name="Han_recreate_weights" sheetId="3" r:id="rId4"/>
+    <sheet name="IRMAS_Nsynth_weights" sheetId="4" r:id="rId5"/>
+    <sheet name="IRMAS_extended_weights" sheetId="5" r:id="rId6"/>
+    <sheet name="IRMAS_extended_Nsynth_weights" sheetId="6" r:id="rId7"/>
+    <sheet name="IRMAS_extended_aug" sheetId="8" r:id="rId8"/>
+    <sheet name="Best_values" sheetId="11" r:id="rId9"/>
+    <sheet name="IRMAS_ext_Nsynth_aug" sheetId="7" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>Average F1</t>
   </si>
@@ -87,6 +94,15 @@
   <si>
     <t>IRMAS_E_Nsynth_Aug</t>
   </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
 </sst>
 </file>
 
@@ -101,15 +117,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -117,12 +139,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,7 +221,1191 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Mirco Scores</a:t>
+              <a:t>Validation Loss</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Train Results'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Han_Recreate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Train Results'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Train Results'!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.2670999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D22-4F40-8A26-16B021B3AD20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Train Results'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IRMAS_Nsynth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Train Results'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Train Results'!$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.3251999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1D22-4F40-8A26-16B021B3AD20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Train Results'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IRMAS_Extended</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Train Results'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Train Results'!$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.79969392200429501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1D22-4F40-8A26-16B021B3AD20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Train Results'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IRMAS_extended_Nsynth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Train Results'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Train Results'!$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.89080000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1D22-4F40-8A26-16B021B3AD20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Train Results'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IRMAS-Extended_Aug</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Train Results'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Train Results'!$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1D22-4F40-8A26-16B021B3AD20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Train Results'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IRMAS_E_Nsynth_Aug</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Train Results'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Train Results'!$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.96860000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1D22-4F40-8A26-16B021B3AD20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="582871920"/>
+        <c:axId val="582872248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="582871920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582872248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="582872248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582871920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Validation Accuracy Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Train Results'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Han_Recreate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Train Results'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Train Results'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.62129999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-779B-4F28-A678-5FDB5965F035}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Train Results'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IRMAS_Nsynth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Train Results'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Train Results'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.58050000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-779B-4F28-A678-5FDB5965F035}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Train Results'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IRMAS_Extended</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Train Results'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Train Results'!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.76905235247235904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-779B-4F28-A678-5FDB5965F035}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Train Results'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IRMAS_extended_Nsynth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Train Results'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Train Results'!$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.7137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-779B-4F28-A678-5FDB5965F035}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Train Results'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IRMAS-Extended_Aug</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Train Results'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Train Results'!$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.72070000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-779B-4F28-A678-5FDB5965F035}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Train Results'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IRMAS_E_Nsynth_Aug</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Train Results'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Train Results'!$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.7329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-779B-4F28-A678-5FDB5965F035}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="582871920"/>
+        <c:axId val="582872248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="582871920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582872248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="582872248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582871920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Micro Scores</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -267,16 +1497,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.56656270096232697</c:v>
+                  <c:v>0.55411157428036595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.621316646894013</c:v>
+                  <c:v>0.60615982182316297</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.42857142857142799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14131101820334199</c:v>
+                  <c:v>0.168287925055286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -338,16 +1568,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.54600645510943802</c:v>
+                  <c:v>0.50019477784531896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58049500872428295</c:v>
+                  <c:v>0.53297141863389996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42857142857142799</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14935469091047801</c:v>
+                  <c:v>0.162063860413445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -409,16 +1639,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.58854929040609105</c:v>
+                  <c:v>0.59707700048419698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69586151520849304</c:v>
+                  <c:v>0.70406836418475005</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.42857142857142799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14897538679745501</c:v>
+                  <c:v>0.15739186171514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,16 +1710,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.59184467640552596</c:v>
+                  <c:v>0.60287011749921005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.695368952268963</c:v>
+                  <c:v>0.69444080358402605</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.42857142857142799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.152150128919435</c:v>
+                  <c:v>0.14202006092112099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -551,16 +1781,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.623940497267921</c:v>
+                  <c:v>0.60688165081427003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73473827673173997</c:v>
+                  <c:v>0.70929372410853897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.42857142857142799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13107935636187901</c:v>
+                  <c:v>0.13139554621381599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -622,16 +1852,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.58736761462528198</c:v>
+                  <c:v>0.62367256757168399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68237789440489804</c:v>
+                  <c:v>0.73432069423354795</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.42857142857142799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14581341967410999</c:v>
+                  <c:v>0.14832911859707401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -845,7 +2075,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -972,16 +2202,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.60634945576089805</c:v>
+                  <c:v>0.58674576753041097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.670206812220701</c:v>
+                  <c:v>0.64858200173893998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.42857142857142799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14689825462540501</c:v>
+                  <c:v>0.16577850988224599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1043,16 +2273,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.58055226658322101</c:v>
+                  <c:v>0.54297168617389102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61906609314764705</c:v>
+                  <c:v>0.58206292562348305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42857142857142799</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.158328008638628</c:v>
+                  <c:v>0.169241415515716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1114,16 +2344,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.62173382996468596</c:v>
+                  <c:v>0.64613247051032696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71980895076574003</c:v>
+                  <c:v>0.75507350902412596</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.42857142857142799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.156094553816818</c:v>
+                  <c:v>0.16504887227725301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,16 +2415,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.62853202693569699</c:v>
+                  <c:v>0.65676535606987996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73467080872945001</c:v>
+                  <c:v>0.74322430655763905</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.42857142857142799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17004276245640099</c:v>
+                  <c:v>0.15498156389284401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1256,16 +2486,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.66738337918519997</c:v>
+                  <c:v>0.64969940705397899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77713367079879403</c:v>
+                  <c:v>0.74727204379982104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.42857142857142799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13957006488950399</c:v>
+                  <c:v>0.14023402488553099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1327,16 +2557,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.62705688270565296</c:v>
+                  <c:v>0.664657976532262</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71120824819898898</c:v>
+                  <c:v>0.76546373950694901</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.42857142857142799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14710139821773699</c:v>
+                  <c:v>0.15656692478486101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1630,8 +2860,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1654,17 +2964,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -1835,22 +3134,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1955,8 +3255,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2088,19 +3388,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2134,7 +3435,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2157,17 +3458,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -2338,6 +3628,511 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -2636,20 +4431,602 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F683E4-136E-4832-BE26-C5006762811B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D42DCC3-23DB-4C09-AF89-3FD5AEAEAA41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2677,20 +5054,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2724,6 +5101,402 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Han_recreate_weights"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Micro</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Macro</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Average F1</v>
+          </cell>
+          <cell r="B2">
+            <v>0.55411157428036595</v>
+          </cell>
+          <cell r="C2">
+            <v>0.58674576753041097</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Average Precision</v>
+          </cell>
+          <cell r="B3">
+            <v>0.60615982182316297</v>
+          </cell>
+          <cell r="C3">
+            <v>0.64858200173893998</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Average Recall</v>
+          </cell>
+          <cell r="B4">
+            <v>0.42857142857142799</v>
+          </cell>
+          <cell r="C4">
+            <v>0.42857142857142799</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>F1 Standard Dev</v>
+          </cell>
+          <cell r="B5">
+            <v>0.168287925055286</v>
+          </cell>
+          <cell r="C5">
+            <v>0.16577850988224599</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>F1</v>
+          </cell>
+          <cell r="B6">
+            <v>0.54060066740823098</v>
+          </cell>
+          <cell r="C6">
+            <v>0.52447132151338405</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Precision</v>
+          </cell>
+          <cell r="B7">
+            <v>0.57628458498023705</v>
+          </cell>
+          <cell r="C7">
+            <v>0.60867519790167901</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Recall</v>
+          </cell>
+          <cell r="B8">
+            <v>0.50907821229050199</v>
+          </cell>
+          <cell r="C8">
+            <v>0.46073362187052203</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="IRMAS_Nsynth"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Micro</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Macro</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Average F1</v>
+          </cell>
+          <cell r="B2">
+            <v>0.50019477784531896</v>
+          </cell>
+          <cell r="C2">
+            <v>0.54297168617389102</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Average Precision</v>
+          </cell>
+          <cell r="B3">
+            <v>0.53297141863389996</v>
+          </cell>
+          <cell r="C3">
+            <v>0.58206292562348305</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Average Recall</v>
+          </cell>
+          <cell r="B4">
+            <v>0.5</v>
+          </cell>
+          <cell r="C4">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>F1 Standard Dev</v>
+          </cell>
+          <cell r="B5">
+            <v>0.162063860413445</v>
+          </cell>
+          <cell r="C5">
+            <v>0.169241415515716</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>F1</v>
+          </cell>
+          <cell r="B6">
+            <v>0.48338809784592901</v>
+          </cell>
+          <cell r="C6">
+            <v>0.45646123927125198</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Precision</v>
+          </cell>
+          <cell r="B7">
+            <v>0.506503442999234</v>
+          </cell>
+          <cell r="C7">
+            <v>0.49470418680442602</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Recall</v>
+          </cell>
+          <cell r="B8">
+            <v>0.46229050279329598</v>
+          </cell>
+          <cell r="C8">
+            <v>0.42370672742632998</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="IRMAS_extended"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Micro</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Macro</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Average F1</v>
+          </cell>
+          <cell r="B2">
+            <v>0.59707700048419698</v>
+          </cell>
+          <cell r="C2">
+            <v>0.64613247051032696</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Average Precision</v>
+          </cell>
+          <cell r="B3">
+            <v>0.70406836418475005</v>
+          </cell>
+          <cell r="C3">
+            <v>0.75507350902412596</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Average Recall</v>
+          </cell>
+          <cell r="B4">
+            <v>0.42857142857142799</v>
+          </cell>
+          <cell r="C4">
+            <v>0.42857142857142799</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>F1 Standard Dev</v>
+          </cell>
+          <cell r="B5">
+            <v>0.15739186171514</v>
+          </cell>
+          <cell r="C5">
+            <v>0.16504887227725301</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>F1</v>
+          </cell>
+          <cell r="B6">
+            <v>0.58299919807538003</v>
+          </cell>
+          <cell r="C6">
+            <v>0.56738160845991104</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Precision</v>
+          </cell>
+          <cell r="B7">
+            <v>0.68455743879472697</v>
+          </cell>
+          <cell r="C7">
+            <v>0.70910175202772896</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Recall</v>
+          </cell>
+          <cell r="B8">
+            <v>0.50768156424581001</v>
+          </cell>
+          <cell r="C8">
+            <v>0.472873693907014</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="IRMAS_extended_Nsynth"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Micro</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Macro</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Average F1</v>
+          </cell>
+          <cell r="B2">
+            <v>0.60287011749921005</v>
+          </cell>
+          <cell r="C2">
+            <v>0.65676535606987996</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Average Precision</v>
+          </cell>
+          <cell r="B3">
+            <v>0.69444080358402605</v>
+          </cell>
+          <cell r="C3">
+            <v>0.74322430655763905</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Average Recall</v>
+          </cell>
+          <cell r="B4">
+            <v>0.42857142857142799</v>
+          </cell>
+          <cell r="C4">
+            <v>0.42857142857142799</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>F1 Standard Dev</v>
+          </cell>
+          <cell r="B5">
+            <v>0.14202006092112099</v>
+          </cell>
+          <cell r="C5">
+            <v>0.15498156389284401</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>F1</v>
+          </cell>
+          <cell r="B6">
+            <v>0.58914728682170503</v>
+          </cell>
+          <cell r="C6">
+            <v>0.59260976093575002</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Precision</v>
+          </cell>
+          <cell r="B7">
+            <v>0.66202090592334495</v>
+          </cell>
+          <cell r="C7">
+            <v>0.69627586861036905</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Recall</v>
+          </cell>
+          <cell r="B8">
+            <v>0.53072625698324005</v>
+          </cell>
+          <cell r="C8">
+            <v>0.51581225673238396</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="IRMAS_extended_aug"/>
     </sheetNames>
     <sheetDataSet>
@@ -2741,10 +5514,10 @@
             <v>Average F1</v>
           </cell>
           <cell r="B2">
-            <v>0.623940497267921</v>
+            <v>0.60688165081427003</v>
           </cell>
           <cell r="C2">
-            <v>0.66738337918519997</v>
+            <v>0.64969940705397899</v>
           </cell>
         </row>
         <row r="3">
@@ -2752,10 +5525,10 @@
             <v>Average Precision</v>
           </cell>
           <cell r="B3">
-            <v>0.73473827673173997</v>
+            <v>0.70929372410853897</v>
           </cell>
           <cell r="C3">
-            <v>0.77713367079879403</v>
+            <v>0.74727204379982104</v>
           </cell>
         </row>
         <row r="4">
@@ -2763,10 +5536,10 @@
             <v>Average Recall</v>
           </cell>
           <cell r="B4">
-            <v>0.5</v>
+            <v>0.42857142857142799</v>
           </cell>
           <cell r="C4">
-            <v>0.5</v>
+            <v>0.42857142857142799</v>
           </cell>
         </row>
         <row r="5">
@@ -2774,10 +5547,10 @@
             <v>F1 Standard Dev</v>
           </cell>
           <cell r="B5">
-            <v>0.13107935636187901</v>
+            <v>0.13139554621381599</v>
           </cell>
           <cell r="C5">
-            <v>0.13957006488950399</v>
+            <v>0.14023402488553099</v>
           </cell>
         </row>
         <row r="6">
@@ -2785,10 +5558,10 @@
             <v>F1</v>
           </cell>
           <cell r="B6">
-            <v>0.61193432118542201</v>
+            <v>0.59596359319351</v>
           </cell>
           <cell r="C6">
-            <v>0.61642910169796905</v>
+            <v>0.57493866629424695</v>
           </cell>
         </row>
         <row r="7">
@@ -2796,10 +5569,10 @@
             <v>Precision</v>
           </cell>
           <cell r="B7">
-            <v>0.71737089201877902</v>
+            <v>0.68767123287671195</v>
           </cell>
           <cell r="C7">
-            <v>0.78630025948289595</v>
+            <v>0.70644956826615002</v>
           </cell>
         </row>
         <row r="8">
@@ -2807,10 +5580,109 @@
             <v>Recall</v>
           </cell>
           <cell r="B8">
-            <v>0.533519553072625</v>
+            <v>0.52583798882681498</v>
           </cell>
           <cell r="C8">
-            <v>0.50691576203240296</v>
+            <v>0.48470684120421698</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="IRMAS_extended_Nsynth_aug"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Micro</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Macro</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Average F1</v>
+          </cell>
+          <cell r="B2">
+            <v>0.62367256757168399</v>
+          </cell>
+          <cell r="C2">
+            <v>0.664657976532262</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Average Precision</v>
+          </cell>
+          <cell r="B3">
+            <v>0.73432069423354795</v>
+          </cell>
+          <cell r="C3">
+            <v>0.76546373950694901</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Average Recall</v>
+          </cell>
+          <cell r="B4">
+            <v>0.42857142857142799</v>
+          </cell>
+          <cell r="C4">
+            <v>0.42857142857142799</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>F1 Standard Dev</v>
+          </cell>
+          <cell r="B5">
+            <v>0.14832911859707401</v>
+          </cell>
+          <cell r="C5">
+            <v>0.15656692478486101</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>F1</v>
+          </cell>
+          <cell r="B6">
+            <v>0.61186848436246899</v>
+          </cell>
+          <cell r="C6">
+            <v>0.56872987105768302</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Precision</v>
+          </cell>
+          <cell r="B7">
+            <v>0.71845574387947198</v>
+          </cell>
+          <cell r="C7">
+            <v>0.69845787025398098</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Recall</v>
+          </cell>
+          <cell r="B8">
+            <v>0.53282122905027895</v>
+          </cell>
+          <cell r="C8">
+            <v>0.47964336164349203</v>
           </cell>
         </row>
       </sheetData>
@@ -3115,11 +5987,248 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427261BD-2F4F-40BD-BA27-FDF2FF369A5F}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <f>0.6213</f>
+        <v>0.62129999999999996</v>
+      </c>
+      <c r="C2">
+        <v>0.58050000000000002</v>
+      </c>
+      <c r="D2">
+        <v>0.76905235247235904</v>
+      </c>
+      <c r="E2">
+        <v>0.7137</v>
+      </c>
+      <c r="F2">
+        <v>0.72070000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.7329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <f>1.2671</f>
+        <v>1.2670999999999999</v>
+      </c>
+      <c r="C3">
+        <v>1.3251999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.79969392200429501</v>
+      </c>
+      <c r="E3">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="F3">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="G3">
+        <v>0.96860000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59EE1B9-9244-48D7-ABB6-DBD8243EB91F}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="str">
+        <f>[6]IRMAS_extended_Nsynth_aug!B1</f>
+        <v>Micro</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>[6]IRMAS_extended_Nsynth_aug!C1</f>
+        <v>Macro</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="str">
+        <f>[6]IRMAS_extended_Nsynth_aug!A2</f>
+        <v>Average F1</v>
+      </c>
+      <c r="C3" s="2">
+        <f>[6]IRMAS_extended_Nsynth_aug!B2</f>
+        <v>0.62367256757168399</v>
+      </c>
+      <c r="D3" s="2">
+        <f>[6]IRMAS_extended_Nsynth_aug!C2</f>
+        <v>0.664657976532262</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="str">
+        <f>[6]IRMAS_extended_Nsynth_aug!A3</f>
+        <v>Average Precision</v>
+      </c>
+      <c r="C4" s="2">
+        <f>[6]IRMAS_extended_Nsynth_aug!B3</f>
+        <v>0.73432069423354795</v>
+      </c>
+      <c r="D4" s="2">
+        <f>[6]IRMAS_extended_Nsynth_aug!C3</f>
+        <v>0.76546373950694901</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="str">
+        <f>[6]IRMAS_extended_Nsynth_aug!A4</f>
+        <v>Average Recall</v>
+      </c>
+      <c r="C5" s="2">
+        <f>[6]IRMAS_extended_Nsynth_aug!B4</f>
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="D5" s="2">
+        <f>[6]IRMAS_extended_Nsynth_aug!C4</f>
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="str">
+        <f>[6]IRMAS_extended_Nsynth_aug!A5</f>
+        <v>F1 Standard Dev</v>
+      </c>
+      <c r="C6" s="3">
+        <f>[6]IRMAS_extended_Nsynth_aug!B5</f>
+        <v>0.14832911859707401</v>
+      </c>
+      <c r="D6" s="3">
+        <f>[6]IRMAS_extended_Nsynth_aug!C5</f>
+        <v>0.15656692478486101</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="str">
+        <f>[6]IRMAS_extended_Nsynth_aug!A6</f>
+        <v>F1</v>
+      </c>
+      <c r="C8">
+        <f>[6]IRMAS_extended_Nsynth_aug!B6</f>
+        <v>0.61186848436246899</v>
+      </c>
+      <c r="D8">
+        <f>[6]IRMAS_extended_Nsynth_aug!C6</f>
+        <v>0.56872987105768302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <f>[6]IRMAS_extended_Nsynth_aug!A7</f>
+        <v>Precision</v>
+      </c>
+      <c r="C9">
+        <f>[6]IRMAS_extended_Nsynth_aug!B7</f>
+        <v>0.71845574387947198</v>
+      </c>
+      <c r="D9">
+        <f>[6]IRMAS_extended_Nsynth_aug!C7</f>
+        <v>0.69845787025398098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <f>[6]IRMAS_extended_Nsynth_aug!A8</f>
+        <v>Recall</v>
+      </c>
+      <c r="C10">
+        <f>[6]IRMAS_extended_Nsynth_aug!B8</f>
+        <v>0.53282122905027895</v>
+      </c>
+      <c r="D10">
+        <f>[6]IRMAS_extended_Nsynth_aug!C8</f>
+        <v>0.47964336164349203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7297350-76C5-46D1-9094-5B9D4EF6FB2A}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3127,7 +6236,7 @@
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -3146,66 +6255,77 @@
       <c r="G1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <f>Han_recreate_weights!B2</f>
-        <v>0.56656270096232697</v>
+        <v>0.55411157428036595</v>
       </c>
       <c r="C2">
         <f>IRMAS_Nsynth_weights!B2</f>
-        <v>0.54600645510943802</v>
+        <v>0.50019477784531896</v>
       </c>
       <c r="D2">
         <f>IRMAS_extended_weights!B2</f>
-        <v>0.58854929040609105</v>
+        <v>0.59707700048419698</v>
       </c>
       <c r="E2">
         <f>IRMAS_extended_Nsynth_weights!B2</f>
-        <v>0.59184467640552596</v>
+        <v>0.60287011749921005</v>
       </c>
       <c r="F2">
         <f>IRMAS_extended_aug!B2</f>
+        <v>0.60688165081427003</v>
+      </c>
+      <c r="G2">
+        <f>IRMAS_ext_Nsynth_aug!C3</f>
+        <v>0.62367256757168399</v>
+      </c>
+      <c r="H2">
+        <f>Best_values!B2</f>
         <v>0.623940497267921</v>
       </c>
-      <c r="G2">
-        <f>IRMAS_ext_Nsynth_aug!B2</f>
-        <v>0.58736761462528198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <f>Han_recreate_weights!B3</f>
-        <v>0.621316646894013</v>
+        <v>0.60615982182316297</v>
       </c>
       <c r="C3">
         <f>IRMAS_Nsynth_weights!B3</f>
-        <v>0.58049500872428295</v>
+        <v>0.53297141863389996</v>
       </c>
       <c r="D3">
         <f>IRMAS_extended_weights!B3</f>
-        <v>0.69586151520849304</v>
+        <v>0.70406836418475005</v>
       </c>
       <c r="E3">
         <f>IRMAS_extended_Nsynth_weights!B3</f>
-        <v>0.695368952268963</v>
+        <v>0.69444080358402605</v>
       </c>
       <c r="F3">
         <f>IRMAS_extended_aug!B3</f>
+        <v>0.70929372410853897</v>
+      </c>
+      <c r="G3">
+        <f>IRMAS_ext_Nsynth_aug!C4</f>
+        <v>0.73432069423354795</v>
+      </c>
+      <c r="H3">
+        <f>Best_values!B3</f>
         <v>0.73473827673173997</v>
       </c>
-      <c r="G3">
-        <f>IRMAS_ext_Nsynth_aug!B3</f>
-        <v>0.68237789440489804</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3215,7 +6335,7 @@
       </c>
       <c r="C4">
         <f>IRMAS_Nsynth_weights!B4</f>
-        <v>0.42857142857142799</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
         <f>IRMAS_extended_weights!B4</f>
@@ -3227,127 +6347,147 @@
       </c>
       <c r="F4">
         <f>IRMAS_extended_aug!B4</f>
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="G4">
+        <f>IRMAS_ext_Nsynth_aug!C5</f>
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="H4">
+        <f>Best_values!B4</f>
         <v>0.5</v>
       </c>
-      <c r="G4">
-        <f>IRMAS_ext_Nsynth_aug!B4</f>
-        <v>0.42857142857142799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <f>Han_recreate_weights!B5</f>
-        <v>0.14131101820334199</v>
+        <v>0.168287925055286</v>
       </c>
       <c r="C5">
         <f>IRMAS_Nsynth_weights!B5</f>
-        <v>0.14935469091047801</v>
+        <v>0.162063860413445</v>
       </c>
       <c r="D5">
         <f>IRMAS_extended_weights!B5</f>
-        <v>0.14897538679745501</v>
+        <v>0.15739186171514</v>
       </c>
       <c r="E5">
         <f>IRMAS_extended_Nsynth_weights!B5</f>
-        <v>0.152150128919435</v>
+        <v>0.14202006092112099</v>
       </c>
       <c r="F5">
         <f>IRMAS_extended_aug!B5</f>
+        <v>0.13139554621381599</v>
+      </c>
+      <c r="G5">
+        <f>IRMAS_ext_Nsynth_aug!C6</f>
+        <v>0.14832911859707401</v>
+      </c>
+      <c r="H5">
+        <f>Best_values!B5</f>
         <v>0.13107935636187901</v>
       </c>
-      <c r="G5">
-        <f>IRMAS_ext_Nsynth_aug!B5</f>
-        <v>0.14581341967410999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <f>Han_recreate_weights!B6</f>
-        <v>0.55231053604436198</v>
+        <v>0.54060066740823098</v>
       </c>
       <c r="C6">
         <f>IRMAS_Nsynth_weights!B6</f>
-        <v>0.53222902412675499</v>
+        <v>0.48338809784592901</v>
       </c>
       <c r="D6">
         <f>IRMAS_extended_weights!B6</f>
-        <v>0.57451923076922995</v>
+        <v>0.58299919807538003</v>
       </c>
       <c r="E6">
         <f>IRMAS_extended_Nsynth_weights!B6</f>
-        <v>0.57972166998011898</v>
+        <v>0.58914728682170503</v>
       </c>
       <c r="F6">
         <f>IRMAS_extended_aug!B6</f>
+        <v>0.59596359319351</v>
+      </c>
+      <c r="G6">
+        <f>IRMAS_ext_Nsynth_aug!C8</f>
+        <v>0.61186848436246899</v>
+      </c>
+      <c r="H6">
+        <f>Best_values!B6</f>
         <v>0.61193432118542201</v>
       </c>
-      <c r="G6">
-        <f>IRMAS_ext_Nsynth_aug!B6</f>
-        <v>0.57537490134175195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <f>Han_recreate_weights!B7</f>
-        <v>0.58680282796543504</v>
+        <v>0.57628458498023705</v>
       </c>
       <c r="C7">
         <f>IRMAS_Nsynth_weights!B7</f>
-        <v>0.54944237918215599</v>
+        <v>0.506503442999234</v>
       </c>
       <c r="D7">
         <f>IRMAS_extended_weights!B7</f>
-        <v>0.67387218045112696</v>
+        <v>0.68455743879472697</v>
       </c>
       <c r="E7">
         <f>IRMAS_extended_Nsynth_weights!B7</f>
-        <v>0.67313019390581696</v>
+        <v>0.66202090592334495</v>
       </c>
       <c r="F7">
         <f>IRMAS_extended_aug!B7</f>
+        <v>0.68767123287671195</v>
+      </c>
+      <c r="G7">
+        <f>IRMAS_ext_Nsynth_aug!C9</f>
+        <v>0.71845574387947198</v>
+      </c>
+      <c r="H7">
+        <f>Best_values!B7</f>
         <v>0.71737089201877902</v>
       </c>
-      <c r="G7">
-        <f>IRMAS_ext_Nsynth_aug!B7</f>
-        <v>0.66152450090744097</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <f>Han_recreate_weights!B8</f>
-        <v>0.52164804469273696</v>
+        <v>0.50907821229050199</v>
       </c>
       <c r="C8">
         <f>IRMAS_Nsynth_weights!B8</f>
-        <v>0.51606145251396596</v>
+        <v>0.46229050279329598</v>
       </c>
       <c r="D8">
         <f>IRMAS_extended_weights!B8</f>
-        <v>0.50069832402234604</v>
+        <v>0.50768156424581001</v>
       </c>
       <c r="E8">
         <f>IRMAS_extended_Nsynth_weights!B8</f>
-        <v>0.50907821229050199</v>
+        <v>0.53072625698324005</v>
       </c>
       <c r="F8">
         <f>IRMAS_extended_aug!B8</f>
+        <v>0.52583798882681498</v>
+      </c>
+      <c r="G8">
+        <f>IRMAS_ext_Nsynth_aug!C10</f>
+        <v>0.53282122905027895</v>
+      </c>
+      <c r="H8">
+        <f>Best_values!B8</f>
         <v>0.533519553072625</v>
-      </c>
-      <c r="G8">
-        <f>IRMAS_ext_Nsynth_aug!B8</f>
-        <v>0.50907821229050199</v>
       </c>
     </row>
   </sheetData>
@@ -3356,12 +6496,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0591FB01-8D48-401E-A550-7E2DACAEDDE1}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3369,7 +6509,7 @@
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -3388,66 +6528,77 @@
       <c r="G1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <f>Han_recreate_weights!C2</f>
-        <v>0.60634945576089805</v>
+        <v>0.58674576753041097</v>
       </c>
       <c r="C2">
         <f>IRMAS_Nsynth_weights!C2</f>
-        <v>0.58055226658322101</v>
+        <v>0.54297168617389102</v>
       </c>
       <c r="D2">
         <f>IRMAS_extended_weights!C2</f>
-        <v>0.62173382996468596</v>
+        <v>0.64613247051032696</v>
       </c>
       <c r="E2">
         <f>IRMAS_extended_Nsynth_weights!C2</f>
-        <v>0.62853202693569699</v>
+        <v>0.65676535606987996</v>
       </c>
       <c r="F2">
         <f>IRMAS_extended_aug!C2</f>
+        <v>0.64969940705397899</v>
+      </c>
+      <c r="G2">
+        <f>IRMAS_ext_Nsynth_aug!D3</f>
+        <v>0.664657976532262</v>
+      </c>
+      <c r="H2">
+        <f>Best_values!C2</f>
         <v>0.66738337918519997</v>
       </c>
-      <c r="G2">
-        <f>IRMAS_ext_Nsynth_aug!C2</f>
-        <v>0.62705688270565296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <f>Han_recreate_weights!C3</f>
-        <v>0.670206812220701</v>
+        <v>0.64858200173893998</v>
       </c>
       <c r="C3">
         <f>IRMAS_Nsynth_weights!C3</f>
-        <v>0.61906609314764705</v>
+        <v>0.58206292562348305</v>
       </c>
       <c r="D3">
         <f>IRMAS_extended_weights!C3</f>
-        <v>0.71980895076574003</v>
+        <v>0.75507350902412596</v>
       </c>
       <c r="E3">
         <f>IRMAS_extended_Nsynth_weights!C3</f>
-        <v>0.73467080872945001</v>
+        <v>0.74322430655763905</v>
       </c>
       <c r="F3">
         <f>IRMAS_extended_aug!C3</f>
+        <v>0.74727204379982104</v>
+      </c>
+      <c r="G3">
+        <f>IRMAS_ext_Nsynth_aug!D4</f>
+        <v>0.76546373950694901</v>
+      </c>
+      <c r="H3">
+        <f>Best_values!C3</f>
         <v>0.77713367079879403</v>
       </c>
-      <c r="G3">
-        <f>IRMAS_ext_Nsynth_aug!C3</f>
-        <v>0.71120824819898898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3457,7 +6608,7 @@
       </c>
       <c r="C4">
         <f>IRMAS_Nsynth_weights!C4</f>
-        <v>0.42857142857142799</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
         <f>IRMAS_extended_weights!C4</f>
@@ -3469,127 +6620,147 @@
       </c>
       <c r="F4">
         <f>IRMAS_extended_aug!C4</f>
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="G4">
+        <f>IRMAS_ext_Nsynth_aug!D5</f>
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="H4">
+        <f>Best_values!C4</f>
         <v>0.5</v>
       </c>
-      <c r="G4">
-        <f>IRMAS_ext_Nsynth_aug!C4</f>
-        <v>0.42857142857142799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <f>Han_recreate_weights!C5</f>
-        <v>0.14689825462540501</v>
+        <v>0.16577850988224599</v>
       </c>
       <c r="C5">
         <f>IRMAS_Nsynth_weights!C5</f>
-        <v>0.158328008638628</v>
+        <v>0.169241415515716</v>
       </c>
       <c r="D5">
         <f>IRMAS_extended_weights!C5</f>
-        <v>0.156094553816818</v>
+        <v>0.16504887227725301</v>
       </c>
       <c r="E5">
         <f>IRMAS_extended_Nsynth_weights!C5</f>
-        <v>0.17004276245640099</v>
+        <v>0.15498156389284401</v>
       </c>
       <c r="F5">
         <f>IRMAS_extended_aug!C5</f>
+        <v>0.14023402488553099</v>
+      </c>
+      <c r="G5">
+        <f>IRMAS_ext_Nsynth_aug!D6</f>
+        <v>0.15656692478486101</v>
+      </c>
+      <c r="H5">
+        <f>Best_values!C5</f>
         <v>0.13957006488950399</v>
       </c>
-      <c r="G5">
-        <f>IRMAS_ext_Nsynth_aug!C5</f>
-        <v>0.14710139821773699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <f>Han_recreate_weights!C6</f>
-        <v>0.58412211153951699</v>
+        <v>0.52447132151338405</v>
       </c>
       <c r="C6">
         <f>IRMAS_Nsynth_weights!C6</f>
-        <v>0.55777451690812896</v>
+        <v>0.45646123927125198</v>
       </c>
       <c r="D6">
         <f>IRMAS_extended_weights!C6</f>
-        <v>0.56027025178142698</v>
+        <v>0.56738160845991104</v>
       </c>
       <c r="E6">
         <f>IRMAS_extended_Nsynth_weights!C6</f>
-        <v>0.53021038045862701</v>
+        <v>0.59260976093575002</v>
       </c>
       <c r="F6">
         <f>IRMAS_extended_aug!C6</f>
+        <v>0.57493866629424695</v>
+      </c>
+      <c r="G6">
+        <f>IRMAS_ext_Nsynth_aug!D8</f>
+        <v>0.56872987105768302</v>
+      </c>
+      <c r="H6">
+        <f>Best_values!C6</f>
         <v>0.61642910169796905</v>
       </c>
-      <c r="G6">
-        <f>IRMAS_ext_Nsynth_aug!C6</f>
-        <v>0.57743109036540496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <f>Han_recreate_weights!C7</f>
-        <v>0.69648964188005302</v>
+        <v>0.60867519790167901</v>
       </c>
       <c r="C7">
         <f>IRMAS_Nsynth_weights!C7</f>
-        <v>0.60116836885076197</v>
+        <v>0.49470418680442602</v>
       </c>
       <c r="D7">
         <f>IRMAS_extended_weights!C7</f>
-        <v>0.69001926569746397</v>
+        <v>0.70910175202772896</v>
       </c>
       <c r="E7">
         <f>IRMAS_extended_Nsynth_weights!C7</f>
-        <v>0.67629316355006897</v>
+        <v>0.69627586861036905</v>
       </c>
       <c r="F7">
         <f>IRMAS_extended_aug!C7</f>
+        <v>0.70644956826615002</v>
+      </c>
+      <c r="G7">
+        <f>IRMAS_ext_Nsynth_aug!D9</f>
+        <v>0.69845787025398098</v>
+      </c>
+      <c r="H7">
+        <f>Best_values!C7</f>
         <v>0.78630025948289595</v>
       </c>
-      <c r="G7">
-        <f>IRMAS_ext_Nsynth_aug!C7</f>
-        <v>0.70379996384077603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <f>Han_recreate_weights!C8</f>
-        <v>0.50297507922625995</v>
+        <v>0.46073362187052203</v>
       </c>
       <c r="C8">
         <f>IRMAS_Nsynth_weights!C8</f>
-        <v>0.52022347214740305</v>
+        <v>0.42370672742632998</v>
       </c>
       <c r="D8">
         <f>IRMAS_extended_weights!C8</f>
-        <v>0.47159334819422899</v>
+        <v>0.472873693907014</v>
       </c>
       <c r="E8">
         <f>IRMAS_extended_Nsynth_weights!C8</f>
-        <v>0.436026439017143</v>
+        <v>0.51581225673238396</v>
       </c>
       <c r="F8">
         <f>IRMAS_extended_aug!C8</f>
+        <v>0.48470684120421698</v>
+      </c>
+      <c r="G8">
+        <f>IRMAS_ext_Nsynth_aug!D10</f>
+        <v>0.47964336164349203</v>
+      </c>
+      <c r="H8">
+        <f>Best_values!C8</f>
         <v>0.50691576203240296</v>
-      </c>
-      <c r="G8">
-        <f>IRMAS_ext_Nsynth_aug!C8</f>
-        <v>0.48953413119378197</v>
       </c>
     </row>
   </sheetData>
@@ -3598,197 +6769,126 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20F8CCD-F5C7-463E-934E-BBAB47FDE15E}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
+      <c r="A1">
+        <f>[1]Han_recreate_weights!A1</f>
+        <v>0</v>
+      </c>
+      <c r="B1" t="str">
+        <f>[1]Han_recreate_weights!B1</f>
+        <v>Micro</v>
+      </c>
+      <c r="C1" t="str">
+        <f>[1]Han_recreate_weights!C1</f>
+        <v>Macro</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2" t="str">
+        <f>[1]Han_recreate_weights!A2</f>
+        <v>Average F1</v>
       </c>
       <c r="B2">
-        <v>0.56656270096232697</v>
+        <f>[1]Han_recreate_weights!B2</f>
+        <v>0.55411157428036595</v>
       </c>
       <c r="C2">
-        <v>0.60634945576089805</v>
+        <f>[1]Han_recreate_weights!C2</f>
+        <v>0.58674576753041097</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3" t="str">
+        <f>[1]Han_recreate_weights!A3</f>
+        <v>Average Precision</v>
       </c>
       <c r="B3">
-        <v>0.621316646894013</v>
+        <f>[1]Han_recreate_weights!B3</f>
+        <v>0.60615982182316297</v>
       </c>
       <c r="C3">
-        <v>0.670206812220701</v>
+        <f>[1]Han_recreate_weights!C3</f>
+        <v>0.64858200173893998</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4" t="str">
+        <f>[1]Han_recreate_weights!A4</f>
+        <v>Average Recall</v>
       </c>
       <c r="B4">
+        <f>[1]Han_recreate_weights!B4</f>
         <v>0.42857142857142799</v>
       </c>
       <c r="C4">
+        <f>[1]Han_recreate_weights!C4</f>
         <v>0.42857142857142799</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5" t="str">
+        <f>[1]Han_recreate_weights!A5</f>
+        <v>F1 Standard Dev</v>
       </c>
       <c r="B5">
-        <v>0.14131101820334199</v>
+        <f>[1]Han_recreate_weights!B5</f>
+        <v>0.168287925055286</v>
       </c>
       <c r="C5">
-        <v>0.14689825462540501</v>
+        <f>[1]Han_recreate_weights!C5</f>
+        <v>0.16577850988224599</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
+      <c r="A6" t="str">
+        <f>[1]Han_recreate_weights!A6</f>
+        <v>F1</v>
       </c>
       <c r="B6">
-        <v>0.55231053604436198</v>
+        <f>[1]Han_recreate_weights!B6</f>
+        <v>0.54060066740823098</v>
       </c>
       <c r="C6">
-        <v>0.58412211153951699</v>
+        <f>[1]Han_recreate_weights!C6</f>
+        <v>0.52447132151338405</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
+      <c r="A7" t="str">
+        <f>[1]Han_recreate_weights!A7</f>
+        <v>Precision</v>
       </c>
       <c r="B7">
-        <v>0.58680282796543504</v>
+        <f>[1]Han_recreate_weights!B7</f>
+        <v>0.57628458498023705</v>
       </c>
       <c r="C7">
-        <v>0.69648964188005302</v>
+        <f>[1]Han_recreate_weights!C7</f>
+        <v>0.60867519790167901</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
+      <c r="A8" t="str">
+        <f>[1]Han_recreate_weights!A8</f>
+        <v>Recall</v>
       </c>
       <c r="B8">
-        <v>0.52164804469273696</v>
+        <f>[1]Han_recreate_weights!B8</f>
+        <v>0.50907821229050199</v>
       </c>
       <c r="C8">
-        <v>0.50297507922625995</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782635D2-7FBA-4701-8AD0-02CF12894785}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.54600645510943802</v>
-      </c>
-      <c r="C2">
-        <v>0.58055226658322101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.58049500872428295</v>
-      </c>
-      <c r="C3">
-        <v>0.61906609314764705</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.42857142857142799</v>
-      </c>
-      <c r="C4">
-        <v>0.42857142857142799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.14935469091047801</v>
-      </c>
-      <c r="C5">
-        <v>0.158328008638628</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.53222902412675499</v>
-      </c>
-      <c r="C6">
-        <v>0.55777451690812896</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.54944237918215599</v>
-      </c>
-      <c r="C7">
-        <v>0.60116836885076197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.51606145251396596</v>
-      </c>
-      <c r="C8">
-        <v>0.52022347214740305</v>
+        <f>[1]Han_recreate_weights!C8</f>
+        <v>0.46073362187052203</v>
       </c>
     </row>
   </sheetData>
@@ -3797,96 +6897,125 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7577B8E1-C671-4956-9FED-02842CE8053D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782635D2-7FBA-4701-8AD0-02CF12894785}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
+      <c r="A1">
+        <f>[2]IRMAS_Nsynth!A1</f>
+        <v>0</v>
+      </c>
+      <c r="B1" t="str">
+        <f>[2]IRMAS_Nsynth!B1</f>
+        <v>Micro</v>
+      </c>
+      <c r="C1" t="str">
+        <f>[2]IRMAS_Nsynth!C1</f>
+        <v>Macro</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2" t="str">
+        <f>[2]IRMAS_Nsynth!A2</f>
+        <v>Average F1</v>
       </c>
       <c r="B2">
-        <v>0.58854929040609105</v>
+        <f>[2]IRMAS_Nsynth!B2</f>
+        <v>0.50019477784531896</v>
       </c>
       <c r="C2">
-        <v>0.62173382996468596</v>
+        <f>[2]IRMAS_Nsynth!C2</f>
+        <v>0.54297168617389102</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3" t="str">
+        <f>[2]IRMAS_Nsynth!A3</f>
+        <v>Average Precision</v>
       </c>
       <c r="B3">
-        <v>0.69586151520849304</v>
+        <f>[2]IRMAS_Nsynth!B3</f>
+        <v>0.53297141863389996</v>
       </c>
       <c r="C3">
-        <v>0.71980895076574003</v>
+        <f>[2]IRMAS_Nsynth!C3</f>
+        <v>0.58206292562348305</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4" t="str">
+        <f>[2]IRMAS_Nsynth!A4</f>
+        <v>Average Recall</v>
       </c>
       <c r="B4">
-        <v>0.42857142857142799</v>
+        <f>[2]IRMAS_Nsynth!B4</f>
+        <v>0.5</v>
       </c>
       <c r="C4">
-        <v>0.42857142857142799</v>
+        <f>[2]IRMAS_Nsynth!C4</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5" t="str">
+        <f>[2]IRMAS_Nsynth!A5</f>
+        <v>F1 Standard Dev</v>
       </c>
       <c r="B5">
-        <v>0.14897538679745501</v>
+        <f>[2]IRMAS_Nsynth!B5</f>
+        <v>0.162063860413445</v>
       </c>
       <c r="C5">
-        <v>0.156094553816818</v>
+        <f>[2]IRMAS_Nsynth!C5</f>
+        <v>0.169241415515716</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
+      <c r="A6" t="str">
+        <f>[2]IRMAS_Nsynth!A6</f>
+        <v>F1</v>
       </c>
       <c r="B6">
-        <v>0.57451923076922995</v>
+        <f>[2]IRMAS_Nsynth!B6</f>
+        <v>0.48338809784592901</v>
       </c>
       <c r="C6">
-        <v>0.56027025178142698</v>
+        <f>[2]IRMAS_Nsynth!C6</f>
+        <v>0.45646123927125198</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
+      <c r="A7" t="str">
+        <f>[2]IRMAS_Nsynth!A7</f>
+        <v>Precision</v>
       </c>
       <c r="B7">
-        <v>0.67387218045112696</v>
+        <f>[2]IRMAS_Nsynth!B7</f>
+        <v>0.506503442999234</v>
       </c>
       <c r="C7">
-        <v>0.69001926569746397</v>
+        <f>[2]IRMAS_Nsynth!C7</f>
+        <v>0.49470418680442602</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
+      <c r="A8" t="str">
+        <f>[2]IRMAS_Nsynth!A8</f>
+        <v>Recall</v>
       </c>
       <c r="B8">
-        <v>0.50069832402234604</v>
+        <f>[2]IRMAS_Nsynth!B8</f>
+        <v>0.46229050279329598</v>
       </c>
       <c r="C8">
-        <v>0.47159334819422899</v>
+        <f>[2]IRMAS_Nsynth!C8</f>
+        <v>0.42370672742632998</v>
       </c>
     </row>
   </sheetData>
@@ -3895,96 +7024,125 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AFC94-A42B-47C9-99F9-754C369704C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7577B8E1-C671-4956-9FED-02842CE8053D}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
+      <c r="A1">
+        <f>[3]IRMAS_extended!A1</f>
+        <v>0</v>
+      </c>
+      <c r="B1" t="str">
+        <f>[3]IRMAS_extended!B1</f>
+        <v>Micro</v>
+      </c>
+      <c r="C1" t="str">
+        <f>[3]IRMAS_extended!C1</f>
+        <v>Macro</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2" t="str">
+        <f>[3]IRMAS_extended!A2</f>
+        <v>Average F1</v>
       </c>
       <c r="B2">
-        <v>0.59184467640552596</v>
+        <f>[3]IRMAS_extended!B2</f>
+        <v>0.59707700048419698</v>
       </c>
       <c r="C2">
-        <v>0.62853202693569699</v>
+        <f>[3]IRMAS_extended!C2</f>
+        <v>0.64613247051032696</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3" t="str">
+        <f>[3]IRMAS_extended!A3</f>
+        <v>Average Precision</v>
       </c>
       <c r="B3">
-        <v>0.695368952268963</v>
+        <f>[3]IRMAS_extended!B3</f>
+        <v>0.70406836418475005</v>
       </c>
       <c r="C3">
-        <v>0.73467080872945001</v>
+        <f>[3]IRMAS_extended!C3</f>
+        <v>0.75507350902412596</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="A4" t="str">
+        <f>[3]IRMAS_extended!A4</f>
+        <v>Average Recall</v>
       </c>
       <c r="B4">
+        <f>[3]IRMAS_extended!B4</f>
         <v>0.42857142857142799</v>
       </c>
       <c r="C4">
+        <f>[3]IRMAS_extended!C4</f>
         <v>0.42857142857142799</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5" t="str">
+        <f>[3]IRMAS_extended!A5</f>
+        <v>F1 Standard Dev</v>
       </c>
       <c r="B5">
-        <v>0.152150128919435</v>
+        <f>[3]IRMAS_extended!B5</f>
+        <v>0.15739186171514</v>
       </c>
       <c r="C5">
-        <v>0.17004276245640099</v>
+        <f>[3]IRMAS_extended!C5</f>
+        <v>0.16504887227725301</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
+      <c r="A6" t="str">
+        <f>[3]IRMAS_extended!A6</f>
+        <v>F1</v>
       </c>
       <c r="B6">
-        <v>0.57972166998011898</v>
+        <f>[3]IRMAS_extended!B6</f>
+        <v>0.58299919807538003</v>
       </c>
       <c r="C6">
-        <v>0.53021038045862701</v>
+        <f>[3]IRMAS_extended!C6</f>
+        <v>0.56738160845991104</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
+      <c r="A7" t="str">
+        <f>[3]IRMAS_extended!A7</f>
+        <v>Precision</v>
       </c>
       <c r="B7">
-        <v>0.67313019390581696</v>
+        <f>[3]IRMAS_extended!B7</f>
+        <v>0.68455743879472697</v>
       </c>
       <c r="C7">
-        <v>0.67629316355006897</v>
+        <f>[3]IRMAS_extended!C7</f>
+        <v>0.70910175202772896</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
+      <c r="A8" t="str">
+        <f>[3]IRMAS_extended!A8</f>
+        <v>Recall</v>
       </c>
       <c r="B8">
-        <v>0.50907821229050199</v>
+        <f>[3]IRMAS_extended!B8</f>
+        <v>0.50768156424581001</v>
       </c>
       <c r="C8">
-        <v>0.436026439017143</v>
+        <f>[3]IRMAS_extended!C8</f>
+        <v>0.472873693907014</v>
       </c>
     </row>
   </sheetData>
@@ -3993,125 +7151,125 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74B3B79-231E-4000-97A1-115D487CA44F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AFC94-A42B-47C9-99F9-754C369704C4}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <f>[1]IRMAS_extended_aug!A1</f>
+        <f>[4]IRMAS_extended_Nsynth!A1</f>
         <v>0</v>
       </c>
       <c r="B1" t="str">
-        <f>[1]IRMAS_extended_aug!B1</f>
+        <f>[4]IRMAS_extended_Nsynth!B1</f>
         <v>Micro</v>
       </c>
       <c r="C1" t="str">
-        <f>[1]IRMAS_extended_aug!C1</f>
+        <f>[4]IRMAS_extended_Nsynth!C1</f>
         <v>Macro</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>[1]IRMAS_extended_aug!A2</f>
+        <f>[4]IRMAS_extended_Nsynth!A2</f>
         <v>Average F1</v>
       </c>
       <c r="B2">
-        <f>[1]IRMAS_extended_aug!B2</f>
-        <v>0.623940497267921</v>
+        <f>[4]IRMAS_extended_Nsynth!B2</f>
+        <v>0.60287011749921005</v>
       </c>
       <c r="C2">
-        <f>[1]IRMAS_extended_aug!C2</f>
-        <v>0.66738337918519997</v>
+        <f>[4]IRMAS_extended_Nsynth!C2</f>
+        <v>0.65676535606987996</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>[1]IRMAS_extended_aug!A3</f>
+        <f>[4]IRMAS_extended_Nsynth!A3</f>
         <v>Average Precision</v>
       </c>
       <c r="B3">
-        <f>[1]IRMAS_extended_aug!B3</f>
-        <v>0.73473827673173997</v>
+        <f>[4]IRMAS_extended_Nsynth!B3</f>
+        <v>0.69444080358402605</v>
       </c>
       <c r="C3">
-        <f>[1]IRMAS_extended_aug!C3</f>
-        <v>0.77713367079879403</v>
+        <f>[4]IRMAS_extended_Nsynth!C3</f>
+        <v>0.74322430655763905</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>[1]IRMAS_extended_aug!A4</f>
+        <f>[4]IRMAS_extended_Nsynth!A4</f>
         <v>Average Recall</v>
       </c>
       <c r="B4">
-        <f>[1]IRMAS_extended_aug!B4</f>
-        <v>0.5</v>
+        <f>[4]IRMAS_extended_Nsynth!B4</f>
+        <v>0.42857142857142799</v>
       </c>
       <c r="C4">
-        <f>[1]IRMAS_extended_aug!C4</f>
-        <v>0.5</v>
+        <f>[4]IRMAS_extended_Nsynth!C4</f>
+        <v>0.42857142857142799</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>[1]IRMAS_extended_aug!A5</f>
+        <f>[4]IRMAS_extended_Nsynth!A5</f>
         <v>F1 Standard Dev</v>
       </c>
       <c r="B5">
-        <f>[1]IRMAS_extended_aug!B5</f>
-        <v>0.13107935636187901</v>
+        <f>[4]IRMAS_extended_Nsynth!B5</f>
+        <v>0.14202006092112099</v>
       </c>
       <c r="C5">
-        <f>[1]IRMAS_extended_aug!C5</f>
-        <v>0.13957006488950399</v>
+        <f>[4]IRMAS_extended_Nsynth!C5</f>
+        <v>0.15498156389284401</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>[1]IRMAS_extended_aug!A6</f>
+        <f>[4]IRMAS_extended_Nsynth!A6</f>
         <v>F1</v>
       </c>
       <c r="B6">
-        <f>[1]IRMAS_extended_aug!B6</f>
-        <v>0.61193432118542201</v>
+        <f>[4]IRMAS_extended_Nsynth!B6</f>
+        <v>0.58914728682170503</v>
       </c>
       <c r="C6">
-        <f>[1]IRMAS_extended_aug!C6</f>
-        <v>0.61642910169796905</v>
+        <f>[4]IRMAS_extended_Nsynth!C6</f>
+        <v>0.59260976093575002</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>[1]IRMAS_extended_aug!A7</f>
+        <f>[4]IRMAS_extended_Nsynth!A7</f>
         <v>Precision</v>
       </c>
       <c r="B7">
-        <f>[1]IRMAS_extended_aug!B7</f>
-        <v>0.71737089201877902</v>
+        <f>[4]IRMAS_extended_Nsynth!B7</f>
+        <v>0.66202090592334495</v>
       </c>
       <c r="C7">
-        <f>[1]IRMAS_extended_aug!C7</f>
-        <v>0.78630025948289595</v>
+        <f>[4]IRMAS_extended_Nsynth!C7</f>
+        <v>0.69627586861036905</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>[1]IRMAS_extended_aug!A8</f>
+        <f>[4]IRMAS_extended_Nsynth!A8</f>
         <v>Recall</v>
       </c>
       <c r="B8">
-        <f>[1]IRMAS_extended_aug!B8</f>
-        <v>0.533519553072625</v>
+        <f>[4]IRMAS_extended_Nsynth!B8</f>
+        <v>0.53072625698324005</v>
       </c>
       <c r="C8">
-        <f>[1]IRMAS_extended_aug!C8</f>
-        <v>0.50691576203240296</v>
+        <f>[4]IRMAS_extended_Nsynth!C8</f>
+        <v>0.51581225673238396</v>
       </c>
     </row>
   </sheetData>
@@ -4120,16 +7278,146 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59EE1B9-9244-48D7-ABB6-DBD8243EB91F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74B3B79-231E-4000-97A1-115D487CA44F}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f>[5]IRMAS_extended_aug!A1</f>
+        <v>0</v>
+      </c>
+      <c r="B1" t="str">
+        <f>[5]IRMAS_extended_aug!B1</f>
+        <v>Micro</v>
+      </c>
+      <c r="C1" t="str">
+        <f>[5]IRMAS_extended_aug!C1</f>
+        <v>Macro</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>[5]IRMAS_extended_aug!A2</f>
+        <v>Average F1</v>
+      </c>
+      <c r="B2">
+        <f>[5]IRMAS_extended_aug!B2</f>
+        <v>0.60688165081427003</v>
+      </c>
+      <c r="C2">
+        <f>[5]IRMAS_extended_aug!C2</f>
+        <v>0.64969940705397899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>[5]IRMAS_extended_aug!A3</f>
+        <v>Average Precision</v>
+      </c>
+      <c r="B3">
+        <f>[5]IRMAS_extended_aug!B3</f>
+        <v>0.70929372410853897</v>
+      </c>
+      <c r="C3">
+        <f>[5]IRMAS_extended_aug!C3</f>
+        <v>0.74727204379982104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>[5]IRMAS_extended_aug!A4</f>
+        <v>Average Recall</v>
+      </c>
+      <c r="B4">
+        <f>[5]IRMAS_extended_aug!B4</f>
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="C4">
+        <f>[5]IRMAS_extended_aug!C4</f>
+        <v>0.42857142857142799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>[5]IRMAS_extended_aug!A5</f>
+        <v>F1 Standard Dev</v>
+      </c>
+      <c r="B5">
+        <f>[5]IRMAS_extended_aug!B5</f>
+        <v>0.13139554621381599</v>
+      </c>
+      <c r="C5">
+        <f>[5]IRMAS_extended_aug!C5</f>
+        <v>0.14023402488553099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>[5]IRMAS_extended_aug!A6</f>
+        <v>F1</v>
+      </c>
+      <c r="B6">
+        <f>[5]IRMAS_extended_aug!B6</f>
+        <v>0.59596359319351</v>
+      </c>
+      <c r="C6">
+        <f>[5]IRMAS_extended_aug!C6</f>
+        <v>0.57493866629424695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>[5]IRMAS_extended_aug!A7</f>
+        <v>Precision</v>
+      </c>
+      <c r="B7">
+        <f>[5]IRMAS_extended_aug!B7</f>
+        <v>0.68767123287671195</v>
+      </c>
+      <c r="C7">
+        <f>[5]IRMAS_extended_aug!C7</f>
+        <v>0.70644956826615002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>[5]IRMAS_extended_aug!A8</f>
+        <v>Recall</v>
+      </c>
+      <c r="B8">
+        <f>[5]IRMAS_extended_aug!B8</f>
+        <v>0.52583798882681498</v>
+      </c>
+      <c r="C8">
+        <f>[5]IRMAS_extended_aug!C8</f>
+        <v>0.48470684120421698</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EAE16D-44B6-4E2E-9668-1090B884AA34}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -4142,10 +7430,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.58736761462528198</v>
+        <v>0.623940497267921</v>
       </c>
       <c r="C2">
-        <v>0.62705688270565296</v>
+        <v>0.66738337918519997</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4153,10 +7441,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.68237789440489804</v>
+        <v>0.73473827673173997</v>
       </c>
       <c r="C3">
-        <v>0.71120824819898898</v>
+        <v>0.77713367079879403</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4164,10 +7452,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.42857142857142799</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
-        <v>0.42857142857142799</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4175,10 +7463,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.14581341967410999</v>
+        <v>0.13107935636187901</v>
       </c>
       <c r="C5">
-        <v>0.14710139821773699</v>
+        <v>0.13957006488950399</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4186,10 +7474,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.57537490134175195</v>
+        <v>0.61193432118542201</v>
       </c>
       <c r="C6">
-        <v>0.57743109036540496</v>
+        <v>0.61642910169796905</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4197,10 +7485,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.66152450090744097</v>
+        <v>0.71737089201877902</v>
       </c>
       <c r="C7">
-        <v>0.70379996384077603</v>
+        <v>0.78630025948289595</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4208,10 +7496,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.50907821229050199</v>
+        <v>0.533519553072625</v>
       </c>
       <c r="C8">
-        <v>0.48953413119378197</v>
+        <v>0.50691576203240296</v>
       </c>
     </row>
   </sheetData>
